--- a/src/Output/plant_global_IF.xlsx
+++ b/src/Output/plant_global_IF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Temp\2023HiMCM\src\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16573191-5B79-443E-BF28-B93FE0671959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F28754-2BF4-4C48-A9E4-5DEE8EA6BA65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2904,14 +2904,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D227" sqref="D227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="1" max="1" width="29" customWidth="1"/>
     <col min="2" max="2" width="19.625" customWidth="1"/>
     <col min="3" max="3" width="13.875" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
@@ -19060,7 +19060,7 @@
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:V227" xr:uid="{42764FDD-458C-4BC7-BEC5-7A129C4BD67A}">
       <formula1>#REF!</formula1>
     </dataValidation>
